--- a/Housekeeping/Balance.xlsx
+++ b/Housekeeping/Balance.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -55,13 +55,40 @@
   </si>
   <si>
     <t>Limits</t>
+  </si>
+  <si>
+    <t>5/13/2014</t>
+  </si>
+  <si>
+    <t>13-05-2014</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>NX</t>
+  </si>
+  <si>
+    <t>Tot</t>
+  </si>
+  <si>
+    <t>Com</t>
+  </si>
+  <si>
+    <t>APL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,12 +97,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,12 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -117,6 +153,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,23 +458,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -449,7 +496,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>41887</v>
       </c>
       <c r="E5">
@@ -457,10 +504,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>41978</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>-32255.919999999998</v>
       </c>
       <c r="E6">
@@ -468,7 +515,13 @@
         <v>525268.78999999992</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -476,112 +529,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="15.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="3" spans="1:9" s="11" customFormat="1">
+      <c r="A3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>10182.74</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>418730.31</v>
       </c>
-      <c r="E3">
-        <f>SUM(A3:D3)</f>
+      <c r="E5">
+        <f>SUM(A5:D5)</f>
         <v>428913.05</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="C4">
+    <row r="6" spans="1:9">
+      <c r="C6">
         <v>7008.24</v>
       </c>
-      <c r="E4">
-        <f>SUM(E3,C4:D4)</f>
+      <c r="E6">
+        <f t="shared" ref="E6:E11" si="0">SUM(E5,C6:D6)</f>
         <v>435921.29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="C5">
+    <row r="7" spans="1:9">
+      <c r="C7">
         <v>3191.13</v>
       </c>
-      <c r="E5">
-        <f>SUM(E4,C5:D5)</f>
+      <c r="E7">
+        <f t="shared" si="0"/>
         <v>439112.42</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="C6">
+    <row r="8" spans="1:9">
+      <c r="C8">
         <v>-1587.71</v>
       </c>
-      <c r="E6">
-        <f>SUM(E5,C6:D6)</f>
+      <c r="E8">
+        <f t="shared" si="0"/>
         <v>437524.70999999996</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="D7">
+    <row r="9" spans="1:9">
+      <c r="D9">
         <v>50000</v>
       </c>
-      <c r="E7">
-        <f>SUM(E6,C7:D7)</f>
+      <c r="E9">
+        <f t="shared" si="0"/>
         <v>487524.70999999996</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="D8">
+    <row r="10" spans="1:9">
+      <c r="D10">
         <v>45000</v>
       </c>
-      <c r="E8">
-        <f>SUM(E7,C8:D8)</f>
+      <c r="E10">
+        <f t="shared" si="0"/>
         <v>532524.71</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="C9">
+    <row r="11" spans="1:9">
+      <c r="C11">
         <v>-32255.919999999998</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>20000</v>
       </c>
-      <c r="E9">
-        <f>SUM(E8,C9:D9)</f>
+      <c r="E11">
+        <f t="shared" si="0"/>
         <v>520268.79</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:9">
+      <c r="D12">
+        <v>30000</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E11,C12:D12)</f>
+        <v>550268.79</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>-9000</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -593,6 +688,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Housekeeping/Balance.xlsx
+++ b/Housekeeping/Balance.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -532,7 +532,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -659,18 +659,18 @@
       </c>
     </row>
     <row r="12" spans="1:9">
+      <c r="C12">
+        <v>-8046.67</v>
+      </c>
       <c r="D12">
         <v>30000</v>
       </c>
       <c r="E12">
         <f>SUM(E11,C12:D12)</f>
-        <v>550268.79</v>
+        <v>542222.12</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="I12">
-        <v>-9000</v>
       </c>
     </row>
   </sheetData>

--- a/Housekeeping/Balance.xlsx
+++ b/Housekeeping/Balance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -82,25 +82,25 @@
   </si>
   <si>
     <t>APL</t>
+  </si>
+  <si>
+    <t>15-05-2014</t>
+  </si>
+  <si>
+    <t>16-05-2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -135,22 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -159,11 +150,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,8 +468,8 @@
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -496,7 +491,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>41887</v>
       </c>
       <c r="E5">
@@ -504,7 +499,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>41978</v>
       </c>
       <c r="C6" s="2">
@@ -521,7 +516,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -529,15 +524,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -545,26 +544,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:9" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -575,11 +574,11 @@
       <c r="B5">
         <v>418730.31</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <f>SUM(A5:D5)</f>
         <v>428913.05</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -587,11 +586,11 @@
       <c r="C6">
         <v>7008.24</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <f t="shared" ref="E6:E11" si="0">SUM(E5,C6:D6)</f>
         <v>435921.29</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -599,11 +598,11 @@
       <c r="C7">
         <v>3191.13</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>439112.42</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -611,11 +610,11 @@
       <c r="C8">
         <v>-1587.71</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>437524.70999999996</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -623,11 +622,11 @@
       <c r="D9">
         <v>50000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>487524.70999999996</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -635,11 +634,11 @@
       <c r="D10">
         <v>45000</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>532524.71</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -650,11 +649,11 @@
       <c r="D11">
         <v>20000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>520268.79</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -665,16 +664,40 @@
       <c r="D12">
         <v>30000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <f>SUM(E11,C12:D12)</f>
         <v>542222.12</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:9">
+      <c r="C13">
+        <v>-3655.81</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" ref="E13:E14" si="1">SUM(E12,C13:D13)</f>
+        <v>538566.30999999994</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14">
+        <v>-2658.73</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="1"/>
+        <v>535907.57999999996</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -688,7 +711,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Housekeeping/Balance.xlsx
+++ b/Housekeeping/Balance.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -88,13 +88,16 @@
   </si>
   <si>
     <t>16-05-2014</t>
+  </si>
+  <si>
+    <t>19-05-2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +114,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -135,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,6 +168,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -677,7 +687,7 @@
         <v>-3655.81</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" ref="E13:E14" si="1">SUM(E12,C13:D13)</f>
+        <f>SUM(E12,C13:D13)</f>
         <v>538566.30999999994</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -689,11 +699,26 @@
         <v>-2658.73</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(E13,C14:D14)</f>
         <v>535907.57999999996</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15" s="9">
+        <v>-12000</v>
+      </c>
+      <c r="E15" s="6">
+        <f>SUM(E14,C15:D15)</f>
+        <v>523907.57999999996</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>-12000</v>
       </c>
     </row>
   </sheetData>

--- a/Housekeeping/Balance.xlsx
+++ b/Housekeeping/Balance.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>19-05-2015</t>
+  </si>
+  <si>
+    <t>20-05-2015</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -534,10 +537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -708,17 +711,26 @@
     </row>
     <row r="15" spans="1:9">
       <c r="C15" s="9">
-        <v>-12000</v>
+        <v>-12834.9</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E14,C15:D15)</f>
-        <v>523907.57999999996</v>
+        <v>523072.67999999993</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I15">
-        <v>-12000</v>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="C16" s="9">
+        <v>-7458.78</v>
+      </c>
+      <c r="E16" s="6">
+        <f>SUM(E15,C16:D16)</f>
+        <v>515613.89999999991</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Housekeeping/Balance.xlsx
+++ b/Housekeeping/Balance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>20-05-2015</t>
+  </si>
+  <si>
+    <t>21-05-2015</t>
   </si>
 </sst>
 </file>
@@ -537,10 +540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -731,6 +734,18 @@
       </c>
       <c r="F16" s="6" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="9">
+        <v>-1803.66</v>
+      </c>
+      <c r="E17" s="6">
+        <f>SUM(E16,C17:D17)</f>
+        <v>513810.23999999993</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Housekeeping/Balance.xlsx
+++ b/Housekeeping/Balance.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -90,13 +90,16 @@
     <t>16-05-2014</t>
   </si>
   <si>
-    <t>19-05-2015</t>
-  </si>
-  <si>
-    <t>20-05-2015</t>
-  </si>
-  <si>
-    <t>21-05-2015</t>
+    <t>22-05-2014</t>
+  </si>
+  <si>
+    <t>21-05-2014</t>
+  </si>
+  <si>
+    <t>20-05-2014</t>
+  </si>
+  <si>
+    <t>19-05-2014</t>
   </si>
 </sst>
 </file>
@@ -125,7 +128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -150,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -175,6 +178,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -681,7 +687,7 @@
         <v>30000</v>
       </c>
       <c r="E12" s="6">
-        <f>SUM(E11,C12:D12)</f>
+        <f t="shared" ref="E12:E17" si="1">SUM(E11,C12:D12)</f>
         <v>542222.12</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -693,7 +699,7 @@
         <v>-3655.81</v>
       </c>
       <c r="E13" s="6">
-        <f>SUM(E12,C13:D13)</f>
+        <f t="shared" si="1"/>
         <v>538566.30999999994</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -705,7 +711,7 @@
         <v>-2658.73</v>
       </c>
       <c r="E14" s="6">
-        <f>SUM(E13,C14:D14)</f>
+        <f t="shared" si="1"/>
         <v>535907.57999999996</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -717,11 +723,11 @@
         <v>-12834.9</v>
       </c>
       <c r="E15" s="6">
-        <f>SUM(E14,C15:D15)</f>
+        <f t="shared" si="1"/>
         <v>523072.67999999993</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -729,23 +735,35 @@
         <v>-7458.78</v>
       </c>
       <c r="E16" s="6">
-        <f>SUM(E15,C16:D16)</f>
+        <f t="shared" si="1"/>
         <v>515613.89999999991</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
       <c r="C17" s="9">
         <v>-1803.66</v>
       </c>
       <c r="E17" s="6">
-        <f>SUM(E16,C17:D17)</f>
+        <f t="shared" si="1"/>
         <v>513810.23999999993</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="E18" s="10">
+        <f>SUM(E17,I18,C18,D18)</f>
+        <v>514710.23999999993</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="9">
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/Housekeeping/Balance.xlsx
+++ b/Housekeeping/Balance.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -549,7 +549,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -755,16 +755,17 @@
       </c>
     </row>
     <row r="18" spans="3:9">
+      <c r="C18">
+        <v>938.6</v>
+      </c>
       <c r="E18" s="10">
         <f>SUM(E17,I18,C18,D18)</f>
-        <v>514710.23999999993</v>
+        <v>514748.83999999991</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="9">
-        <v>900</v>
-      </c>
+      <c r="I18" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Housekeeping/Balance.xlsx
+++ b/Housekeeping/Balance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>19-05-2014</t>
+  </si>
+  <si>
+    <t>23-05-2014</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -766,6 +769,18 @@
         <v>24</v>
       </c>
       <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19">
+        <v>-101334.85</v>
+      </c>
+      <c r="E19" s="10">
+        <f>SUM(E18,I19,C19,D19)</f>
+        <v>413413.98999999987</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Housekeeping/Balance.xlsx
+++ b/Housekeeping/Balance.xlsx
@@ -549,10 +549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -780,6 +780,15 @@
       </c>
       <c r="F19" s="6" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="9">
+        <v>-8797.68</v>
+      </c>
+      <c r="E20" s="10">
+        <f>SUM(E19,I20,C20,D20)</f>
+        <v>404616.30999999988</v>
       </c>
     </row>
   </sheetData>

--- a/Housekeeping/Balance.xlsx
+++ b/Housekeeping/Balance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>23-05-2014</t>
+  </si>
+  <si>
+    <t>26-05-2014</t>
+  </si>
+  <si>
+    <t>27-05-2014</t>
   </si>
 </sst>
 </file>
@@ -549,10 +555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E20" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -789,6 +795,21 @@
       <c r="E20" s="10">
         <f>SUM(E19,I20,C20,D20)</f>
         <v>404616.30999999988</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21">
+        <v>16000.27</v>
+      </c>
+      <c r="E21" s="10">
+        <f>SUM(E20,I21,C21,D21)</f>
+        <v>420616.5799999999</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
